--- a/src/main/resources/excel/success.xlsx
+++ b/src/main/resources/excel/success.xlsx
@@ -93,12 +93,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>整型测试</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>长度</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>整型测试</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -125,27 +125,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -155,34 +155,34 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6y6qju6bdh5l</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -192,7 +192,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>lo8ibyoie0gj4ekp7gl9h3n9p3crshk4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -204,27 +204,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>芬茨敢粳边今</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -234,7 +234,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>敬驴了靶动钠梗忙伯祸脸虑厅兴淤婚惨膛貌株情嗅嫩既狡责份巢咏韭股圣</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -246,27 +246,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t/>
+          <t>勾确慕令痉谷</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -276,7 +276,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -288,27 +288,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>5ffg95pgc6ll</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -318,7 +318,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ebcqtqhtpb4kggynl8ls19pdd04aabqv</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -330,27 +330,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t/>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -360,7 +360,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>叼搔擞手会雨涵恩漏终曲涅兵娄惨泥马渡范脆篷盔缝聚咎沃斟乐箔倾似薯</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -372,27 +372,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -402,7 +402,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -414,27 +414,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -444,7 +444,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -456,27 +456,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -498,27 +498,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -545,22 +545,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -587,22 +587,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -624,27 +624,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -666,27 +666,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -708,22 +708,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -750,22 +750,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -792,27 +792,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>b1gaf10gk90qk</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t/>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -834,27 +834,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>苟阜汛夯赠凭科</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>60u8p6gmza8bdiaub1ypcjnpeaeefemi2</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -876,27 +876,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>pnd</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>肺侈桓珊轨泌拷骇她愧掌芭障拦掀印相故盐热勋骋估网妨驴坍戏异战拳童研</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -918,27 +918,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>宛</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>还令疲瓷羊敝锻懦靖惹入</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -960,27 +960,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>'%_,.*~`!@#$</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>mjlfnix9ohj</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1002,27 +1002,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t/>
+          <t>'%_,.*~`!@#$^&amp;()-+=[]{}:;"?/&lt;&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1044,27 +1044,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>2l5qk7d2badkc</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>跟蛋指悦哩丸释江洋漳摈恍治塑禽拥疽吉箱官娥办稿计泅剩竟起逊朝隋诗仰</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1086,27 +1086,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>谱汕冲亢轰种妹</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>t7jx2fa7xerdhg0uw3t5ppnd5opc0km4d</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1128,27 +1128,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>uu0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>dw70emhq57y</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1170,27 +1170,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>梦</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>夏韭落抢源篇山腺给栗桂</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1212,27 +1212,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>'%_,.*~`!@#$</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>'%_,.*~`!@#$^&amp;()-+=[]{}:;"?/&lt;&gt;</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1254,7 +1254,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1264,17 +1264,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1296,27 +1296,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3.733034184157175</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1338,27 +1338,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1380,27 +1380,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1422,27 +1422,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0.073468864</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1464,27 +1464,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.2677877</t>
+          <t>1.8802040861713631</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1506,12 +1506,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1521,12 +1521,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1548,12 +1548,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1590,27 +1590,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3.3729783394300474</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1632,27 +1632,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1674,27 +1674,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2.487920294953527</t>
+          <t>0.5545312</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1716,27 +1716,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.042424917</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1763,22 +1763,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1805,22 +1805,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -1842,27 +1842,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1.0889205673290359</t>
+          <t>1.7698103358995576</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -1884,27 +1884,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>0.4468689</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -1926,27 +1926,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -1968,27 +1968,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0.77435625</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2010,27 +2010,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2052,27 +2052,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2094,27 +2094,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2136,27 +2136,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2178,27 +2178,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2220,22 +2220,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ASFoPZHJ</t>
+          <t>YJWGy6lu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>FS3EWusMCln89prvWR9zAw</t>
+          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">

--- a/src/main/resources/excel/success.xlsx
+++ b/src/main/resources/excel/success.xlsx
@@ -93,14 +93,14 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>长度</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>整型测试</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>长度</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>测试数据字符串</t>
@@ -117,6 +117,11 @@
         </is>
       </c>
       <c r="G1" t="inlineStr">
+        <is>
+          <t>枚举型001</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
         <is>
           <t>字符串测试</t>
         </is>
@@ -125,27 +130,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -155,34 +160,39 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>弱征嫂镊残硅</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -192,10 +202,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>lo8ibyoie0gj4ekp7gl9h3n9p3crshk4</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -204,27 +219,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>g66jrnog0q5q</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -234,10 +249,15 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>敬驴了靶动钠梗忙伯祸脸虑厅兴淤婚惨膛貌株情嗅嫩既狡责份巢咏韭股圣</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -246,27 +266,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>勾确慕令痉谷</t>
+          <t/>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -276,10 +296,15 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -288,27 +313,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5ffg95pgc6ll</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -318,10 +343,15 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>够卤馒具朝毋爬豆湃砸呻互裤壕扔譬爵寸千皇坪骂酥樊们搂逻卸悦该瓶晌</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -330,27 +360,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t/>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -360,10 +390,15 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>tjprgorxwkebi6amag1docbxi8ovhzu5</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -372,27 +407,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -402,10 +437,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -414,27 +454,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -444,10 +484,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -456,27 +501,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -486,10 +531,15 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -498,27 +548,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -528,10 +578,15 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -545,22 +600,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -570,10 +625,15 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -587,22 +647,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -612,10 +672,15 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -624,27 +689,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -654,10 +719,15 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -666,27 +736,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -696,10 +766,15 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -708,40 +783,45 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t xml:space="preserve">        手动阀手动阀</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2020-12-08T11:33:05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>sfsf</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2020-12-08T11:33:05</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -750,40 +830,45 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t xml:space="preserve">        手动阀手动阀</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2020-12-08T11:33:05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2020-12-08T11:33:05</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -792,27 +877,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t>sfsf</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -822,34 +907,39 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t/>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>操作失败</t>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>操作成功</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -864,39 +954,44 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>60u8p6gmza8bdiaub1ypcjnpeaeefemi2</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>操作失败</t>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>操作成功</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>ize2f8chi1s3y</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -906,10 +1001,15 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>肺侈桓珊轨泌拷骇她愧掌芭障拦掀印相故盐热勋骋估网妨驴坍戏异战拳童研</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -918,27 +1018,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>圆含荔她陆拷姐</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -948,10 +1048,15 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>还令疲瓷羊敝锻懦靖惹入</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -960,27 +1065,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>fm9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -990,10 +1095,15 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>mjlfnix9ohj</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1002,27 +1112,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>碉</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1032,10 +1142,15 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>'%_,.*~`!@#$^&amp;()-+=[]{}:;"?/&lt;&gt;</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1044,27 +1159,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2l5qk7d2badkc</t>
+          <t>'%_,.*~`!@#$</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1074,10 +1189,15 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1086,27 +1206,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>谱汕冲亢轰种妹</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1116,10 +1236,15 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1128,27 +1253,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>uu0</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1158,10 +1283,15 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
+        <is>
+          <t>漆秀讹硅码抠尺轮育孪汕痈阴镊算漓肯年且妹苹火寓托瘪匿拟钧家灌室葫纲</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1170,27 +1300,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>梦</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1200,10 +1330,15 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>jqckfqp0l9woxfhqry7tdcpclrlnwgwgi</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1212,27 +1347,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>'%_,.*~`!@#$</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1242,10 +1377,15 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
+        <is>
+          <t>hbzehsaspej</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1254,27 +1394,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t/>
+          <t>19</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1284,10 +1424,15 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
+        <is>
+          <t>愈逾驰啊牟饰荐尘濒币包</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1296,27 +1441,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1326,10 +1471,15 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
+        <is>
+          <t>'%_,.*~`!@#$^&amp;()-+=[]{}:;"?/&lt;&gt;</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1338,27 +1488,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t/>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1368,10 +1518,15 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1380,27 +1535,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.5874089</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1410,10 +1565,15 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1422,27 +1582,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.073468864</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1452,10 +1612,15 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1464,27 +1629,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.8802040861713631</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1494,10 +1659,15 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1506,27 +1676,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4.6289476504366736</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t/>
+          <t>9</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1536,10 +1706,15 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1548,27 +1723,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1578,10 +1753,15 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1590,27 +1770,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3.3729783394300474</t>
+          <t/>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1620,10 +1800,15 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1632,27 +1817,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1662,10 +1847,15 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1674,27 +1864,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.5545312</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1704,10 +1894,15 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1716,27 +1911,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1746,10 +1941,15 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1758,27 +1958,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t/>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0.059640884</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1788,10 +1988,15 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1800,27 +2005,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>2.922158789792882</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1830,10 +2035,15 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1842,27 +2052,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1.7698103358995576</t>
+          <t/>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1872,10 +2082,15 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1884,27 +2099,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0.4468689</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1914,10 +2129,15 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1926,27 +2146,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>0.98495257</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1956,10 +2176,15 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1968,27 +2193,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>1.30415235708456</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1998,10 +2223,15 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2010,40 +2240,45 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t/>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2052,40 +2287,45 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2020-10-32T25:21:10</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2094,40 +2334,45 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2020-10A-32T25:21A:10</t>
+          <t/>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2136,40 +2381,45 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2020-12-06T11:33:03</t>
+          <t>2020-10-32T25:21:10</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2178,40 +2428,45 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">        是否是否是</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2024-01-18T21:30:06</t>
+          <t>2020-10A-32T25:21A:10</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2220,40 +2475,186 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>YJWGy6lu</t>
+          <t>nE1HDmf9</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t xml:space="preserve">        手动阀手动阀</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2020-12-06T11:33:03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        手动阀手动阀</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>操作失败</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>nE1HDmf9</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        手动阀手动阀</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2024-01-18T21:30:06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        手动阀手动阀</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>操作失败</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>nE1HDmf9</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        手动阀手动阀</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2020-12-08T11:33:05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2020-12-08T11:33:05</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>X4Jqe0ki4IShPpDi0K0mjc</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>操作成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>nE1HDmf9</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2020-12-08T11:33:05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        手动阀手动阀</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>

--- a/src/main/resources/excel/success.xlsx
+++ b/src/main/resources/excel/success.xlsx
@@ -88,40 +88,45 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>样本序号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>小数字段名称</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>长度</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>整型测试</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>测试数据字符串</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>枚举型</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>日期字段测试名称</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>枚举型001</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>字符串测试</t>
         </is>
@@ -130,87 +135,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>弱征嫂镊残硅</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>荐答汗滚枢幽</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -219,45 +234,50 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>g66jrnog0q5q</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>abuoksx2i3f5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -266,45 +286,50 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -313,45 +338,50 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>够卤馒具朝毋爬豆湃砸呻互裤壕扔譬爵寸千皇坪骂酥樊们搂逻卸悦该瓶晌</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>揭犯稽灵胶蔽蠢铂汹捶墟汛表治酚母沧趣缓甭续剑匆彼翘舷腆卿伎诗凡如</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -360,45 +390,50 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>tjprgorxwkebi6amag1docbxi8ovhzu5</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>fml84pj47ljizlnpqfnhh2fyqza3i8fi</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -407,45 +442,50 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -454,45 +494,50 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -501,45 +546,50 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nE1HDmf9</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -548,45 +598,50 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nE1HDmf9</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -595,45 +650,50 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>样本11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>4.12</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -642,45 +702,50 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>样本12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>45.12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -689,45 +754,50 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t xml:space="preserve">        SFGSF</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>2020-12-07T11:33:04</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -736,45 +806,50 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t xml:space="preserve">        SFGSF</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>2024-01-17T21:30:05</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -783,45 +858,50 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>2020-12-08T11:33:05</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>sfsf</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -830,45 +910,50 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>2020-12-08T11:33:05</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -877,45 +962,50 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>RwMb7SvU</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>sfsf</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2020-12-08T11:33:05</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -924,45 +1014,50 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>RwMb7SvU</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t xml:space="preserve">        是否是否是</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2020-12-08T11:33:05</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -971,45 +1066,50 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ize2f8chi1s3y</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>喘底霜波锤充泳</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1018,45 +1118,50 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>圆含荔她陆拷姐</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>z4la9dbwo7ggp</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1065,45 +1170,50 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>fm9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>何</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1112,45 +1222,50 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>碉</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>d3e</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1159,45 +1274,50 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>'%_,.*~`!@#$</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1206,45 +1326,50 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t xml:space="preserve">        手动阀手动阀</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1253,45 +1378,50 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>漆秀讹硅码抠尺轮育孪汕痈阴镊算漓肯年且妹苹火寓托瘪匿拟钧家灌室葫纲</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
+        <is>
+          <t>jnh1oqlwfiqi2ixpymr78mmnhhnsaeqjb</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1300,45 +1430,50 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>jqckfqp0l9woxfhqry7tdcpclrlnwgwgi</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
+        <is>
+          <t>摹七础拓粳守菌惠胳椭刷腹匹羚奇狐镶嗓悄亚嚏缘揣隙惧匈坝瓜疫轨久斧呜</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1347,45 +1482,50 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本27</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>hbzehsaspej</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
+        <is>
+          <t>ivratrsef8n</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1394,45 +1534,50 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>愈逾驰啊牟饰荐尘濒币包</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
+        <is>
+          <t>观林拦讨菏冀谍差抒送笑</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1441,45 +1586,50 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t xml:space="preserve">        手动阀手动阀</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>'%_,.*~`!@#$^&amp;()-+=[]{}:;"?/&lt;&gt;</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1488,45 +1638,50 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1535,45 +1690,50 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.5874089</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4.048231886185742</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1582,45 +1742,50 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1629,45 +1794,50 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本33</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1676,45 +1846,50 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4.6289476504366736</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0.6037596</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1723,45 +1898,50 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本35</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1770,45 +1950,50 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>nE1HDmf9</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1817,45 +2002,50 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本37</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>nE1HDmf9</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1864,45 +2054,50 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本38</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>nE1HDmf9</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1911,45 +2106,50 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本39</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>nE1HDmf9</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -1958,45 +2158,50 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本40</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.059640884</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>3.925099908842808</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2005,45 +2210,50 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本41</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2.922158789792882</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>0.7225838</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2052,45 +2262,50 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>样本42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2099,45 +2314,50 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>样本43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2146,45 +2366,50 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0.98495257</t>
+          <t>样本44</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0.6737912</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2193,45 +2418,50 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1.30415235708456</t>
+          <t>样本45</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1.4192022671415012</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2240,45 +2470,50 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>样本46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>46.12</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2287,45 +2522,50 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>样本47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2334,45 +2574,50 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本48</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t xml:space="preserve">        SFGSF</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2381,45 +2626,50 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本49</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t xml:space="preserve">        SFGSF</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>2020-10-32T25:21:10</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2428,45 +2678,50 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本50</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t xml:space="preserve">        SFGSF</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>2020-10A-32T25:21A:10</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2475,45 +2730,50 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本51</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t xml:space="preserve">        SFGSF</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>2020-12-06T11:33:03</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2522,45 +2782,50 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本52</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t xml:space="preserve">        SFGSF</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>2024-01-18T21:30:06</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>操作失败</t>
         </is>
@@ -2569,45 +2834,50 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本53</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>RwMb7SvU</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2020-12-08T11:33:05</t>
+          <t xml:space="preserve">        SFGSF</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
+          <t>2020-12-08T11:33:05</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
-        </is>
-      </c>
       <c r="I54" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -2616,45 +2886,50 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>样本54</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>nE1HDmf9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>RwMb7SvU</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2020-12-08T11:33:05</t>
-        </is>
-      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve">        手动阀手动阀</t>
+          <t>2020-12-08T11:33:05</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Gjm9Tzz1dH6teQR6u6pKAm</t>
+          <t xml:space="preserve">        手动阀手动阀</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
+        <is>
+          <t>YITuWOSYvHue2jvOwIbhPP</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
